--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H2">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I2">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J2">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.442429333333334</v>
+        <v>4.331589999999999</v>
       </c>
       <c r="N2">
-        <v>7.327288</v>
+        <v>12.99477</v>
       </c>
       <c r="O2">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="P2">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="Q2">
-        <v>2.272835181857778</v>
+        <v>7.124280138203333</v>
       </c>
       <c r="R2">
-        <v>20.45551663672</v>
+        <v>64.11852124383</v>
       </c>
       <c r="S2">
-        <v>0.001576563400157781</v>
+        <v>0.004561152289014827</v>
       </c>
       <c r="T2">
-        <v>0.001576563400157781</v>
+        <v>0.004561152289014827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H3">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I3">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J3">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>47.489728</v>
       </c>
       <c r="O3">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772905</v>
       </c>
       <c r="P3">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772904</v>
       </c>
       <c r="Q3">
-        <v>14.73073319559111</v>
+        <v>26.03586873481245</v>
       </c>
       <c r="R3">
-        <v>132.57659876032</v>
+        <v>234.322818613312</v>
       </c>
       <c r="S3">
-        <v>0.01021804616499968</v>
+        <v>0.01666885074317526</v>
       </c>
       <c r="T3">
-        <v>0.01021804616499968</v>
+        <v>0.01666885074317526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H4">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I4">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J4">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.129750999999999</v>
+        <v>9.129751000000001</v>
       </c>
       <c r="N4">
         <v>27.389253</v>
       </c>
       <c r="O4">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="P4">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="Q4">
-        <v>8.495811523063331</v>
+        <v>15.01594188647634</v>
       </c>
       <c r="R4">
-        <v>76.46230370756999</v>
+        <v>135.143476978287</v>
       </c>
       <c r="S4">
-        <v>0.005893161813410595</v>
+        <v>0.009613602550515033</v>
       </c>
       <c r="T4">
-        <v>0.005893161813410596</v>
+        <v>0.009613602550515033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>132.462531</v>
       </c>
       <c r="I5">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J5">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.442429333333334</v>
+        <v>4.331589999999999</v>
       </c>
       <c r="N5">
-        <v>7.327288</v>
+        <v>12.99477</v>
       </c>
       <c r="O5">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="P5">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="Q5">
-        <v>107.843457093992</v>
+        <v>191.25779155143</v>
       </c>
       <c r="R5">
-        <v>970.5911138459281</v>
+        <v>1721.32012396287</v>
       </c>
       <c r="S5">
-        <v>0.07480614905912386</v>
+        <v>0.1224482890627494</v>
       </c>
       <c r="T5">
-        <v>0.07480614905912387</v>
+        <v>0.1224482890627494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>132.462531</v>
       </c>
       <c r="I6">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J6">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>47.489728</v>
       </c>
       <c r="O6">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772905</v>
       </c>
       <c r="P6">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772904</v>
       </c>
       <c r="Q6">
         <v>698.9566185979521</v>
@@ -818,10 +818,10 @@
         <v>6290.609567381569</v>
       </c>
       <c r="S6">
-        <v>0.4848347262377632</v>
+        <v>0.4474904859151292</v>
       </c>
       <c r="T6">
-        <v>0.4848347262377633</v>
+        <v>0.4474904859151291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>132.462531</v>
       </c>
       <c r="I7">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J7">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.129750999999999</v>
+        <v>9.129751000000001</v>
       </c>
       <c r="N7">
         <v>27.389253</v>
       </c>
       <c r="O7">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="P7">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="Q7">
-        <v>403.116641619927</v>
+        <v>403.1166416199271</v>
       </c>
       <c r="R7">
         <v>3628.049774579343</v>
       </c>
       <c r="S7">
-        <v>0.2796238584502281</v>
+        <v>0.2580859198398106</v>
       </c>
       <c r="T7">
-        <v>0.2796238584502281</v>
+        <v>0.2580859198398106</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>22.577421</v>
       </c>
       <c r="I8">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J8">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.442429333333334</v>
+        <v>4.331589999999999</v>
       </c>
       <c r="N8">
-        <v>7.327288</v>
+        <v>12.99477</v>
       </c>
       <c r="O8">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="P8">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="Q8">
-        <v>18.38125177380534</v>
+        <v>32.59871034312999</v>
       </c>
       <c r="R8">
-        <v>165.431265964248</v>
+        <v>293.38839308817</v>
       </c>
       <c r="S8">
-        <v>0.01275024648816799</v>
+        <v>0.02087055525837255</v>
       </c>
       <c r="T8">
-        <v>0.01275024648816799</v>
+        <v>0.02087055525837255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>22.577421</v>
       </c>
       <c r="I9">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J9">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>47.489728</v>
       </c>
       <c r="O9">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772905</v>
       </c>
       <c r="P9">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772904</v>
       </c>
       <c r="Q9">
         <v>119.1328424701653</v>
@@ -1004,10 +1004,10 @@
         <v>1072.195582231488</v>
       </c>
       <c r="S9">
-        <v>0.0826370872355574</v>
+        <v>0.07627199191898607</v>
       </c>
       <c r="T9">
-        <v>0.0826370872355574</v>
+        <v>0.07627199191898605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>22.577421</v>
       </c>
       <c r="I10">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J10">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.129750999999999</v>
+        <v>9.129751000000001</v>
       </c>
       <c r="N10">
         <v>27.389253</v>
       </c>
       <c r="O10">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="P10">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="Q10">
-        <v>68.70874398405699</v>
+        <v>68.70874398405701</v>
       </c>
       <c r="R10">
         <v>618.378695856513</v>
       </c>
       <c r="S10">
-        <v>0.04766016115059139</v>
+        <v>0.04398915242224728</v>
       </c>
       <c r="T10">
-        <v>0.04766016115059139</v>
+        <v>0.04398915242224728</v>
       </c>
     </row>
   </sheetData>
